--- a/test-resources/data/TEST_REGISTRATION.xlsx
+++ b/test-resources/data/TEST_REGISTRATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoct\Desktop\KiemThuNangCao\ASM\Poly.Asg\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\GodEshop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9852523-5A70-4989-A1B0-EDEED2093F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF920D6F-9D43-469A-86F9-EAD7F53757DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -43,50 +43,35 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>taikhoantest</t>
-  </si>
-  <si>
-    <t>pwtesst</t>
-  </si>
-  <si>
-    <t>Chí Phèo Nam Cao</t>
-  </si>
-  <si>
-    <t>test123@gmail.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>taikhoantest1</t>
-  </si>
-  <si>
-    <t>pwtesst1</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>abcc@@123</t>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>newtest</t>
+  </si>
+  <si>
+    <t>Custnew@123</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>newtest1</t>
+  </si>
+  <si>
+    <t>q@123</t>
+  </si>
+  <si>
+    <t>newtest2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +87,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,16 +123,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -442,197 +471,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8191E-2C4B-4EEF-90E6-A2072F458120}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>902986649</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>902986649</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>902986649</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>902986649</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>902986649</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>902986649</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="D9" s="1">
+        <v>222222</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{42EAC67A-1C7B-4146-AEBB-04112C60E1D9}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{1DDB1BFD-A304-4975-BFAF-7736D0B21DF3}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{5EA405B3-755D-4B71-AED0-93AB85F240B7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{AD56C905-289C-4F54-B28E-F0C677CA6581}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{0A480124-FCE7-4AB0-BE6D-0D924CD3C346}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{92BF20E6-3660-4A0F-B3E6-4361A60C8C71}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D351C27F-5FBF-4832-8AE4-BEF741F59D1E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EF25B9DB-3679-47C6-AB77-192BA637A3F4}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D81B3273-D615-41DC-97B0-8391FBDA0E33}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{4B803F2F-AC10-4FF4-86BB-0E02B6899ABF}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{D8F06004-A888-4B2D-84D9-39AF0CDB9835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-resources/data/TEST_REGISTRATION.xlsx
+++ b/test-resources/data/TEST_REGISTRATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoct\Desktop\KiemThuNangCao\ASM\Poly.Asg\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\GodEshop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9852523-5A70-4989-A1B0-EDEED2093F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AED044-07F7-41E2-B911-5FE976E837C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -43,43 +43,28 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>taikhoantest</t>
-  </si>
-  <si>
-    <t>pwtesst</t>
-  </si>
-  <si>
-    <t>Chí Phèo Nam Cao</t>
-  </si>
-  <si>
-    <t>test123@gmail.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>taikhoantest1</t>
-  </si>
-  <si>
-    <t>pwtesst1</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>abcc@@123</t>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>newtest</t>
+  </si>
+  <si>
+    <t>Custnew@123</t>
+  </si>
+  <si>
+    <t>newtest1</t>
+  </si>
+  <si>
+    <t>q@123</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/account/login/form</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/register</t>
   </si>
 </sst>
 </file>
@@ -95,9 +80,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,16 +103,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8191E-2C4B-4EEF-90E6-A2072F458120}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,11 +433,10 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,16 +447,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,152 +463,103 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>902986649</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>902986649</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>902986649</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>902986649</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="D7">
+        <v>902986649</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{42EAC67A-1C7B-4146-AEBB-04112C60E1D9}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{1DDB1BFD-A304-4975-BFAF-7736D0B21DF3}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{5EA405B3-755D-4B71-AED0-93AB85F240B7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{AD56C905-289C-4F54-B28E-F0C677CA6581}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{0A480124-FCE7-4AB0-BE6D-0D924CD3C346}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{92BF20E6-3660-4A0F-B3E6-4361A60C8C71}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D351C27F-5FBF-4832-8AE4-BEF741F59D1E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{EF25B9DB-3679-47C6-AB77-192BA637A3F4}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D81B3273-D615-41DC-97B0-8391FBDA0E33}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{A4993466-C410-4B4A-8A08-59C9EACCAD83}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{BE76C118-C0CC-4A91-818D-E73DF2CC34A2}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{20CB2FB9-24C4-490F-A14F-868D38AD88D2}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{53FBE6EB-7C31-4A7A-87C7-9B0828BDDEF6}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{F5B2EA15-6032-4B6B-8307-7FC0DC0A045F}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{D224BA01-3C83-4FC0-B4D4-F0CDF4D56A6D}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{AD6F516E-CB29-462F-97E6-3B6BD7EA80D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-resources/data/TEST_REGISTRATION.xlsx
+++ b/test-resources/data/TEST_REGISTRATION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\GodEshop\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code\GodEShop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF920D6F-9D43-469A-86F9-EAD7F53757DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7105F201-D91D-45CF-8D9E-79786ACB4DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -55,42 +55,26 @@
     <t>Custnew@123</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>newtest1</t>
   </si>
   <si>
     <t>q@123</t>
   </si>
   <si>
-    <t>newtest2</t>
+    <t>http://localhost:8080/account/login/form</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,20 +86,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -123,42 +102,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,172 +423,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8191E-2C4B-4EEF-90E6-A2072F458120}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>902986649</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>902986649</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>902986649</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>902986649</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>902986649</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>902986649</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>222222</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D351C27F-5FBF-4832-8AE4-BEF741F59D1E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{EF25B9DB-3679-47C6-AB77-192BA637A3F4}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{D81B3273-D615-41DC-97B0-8391FBDA0E33}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{4B803F2F-AC10-4FF4-86BB-0E02B6899ABF}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{D8F06004-A888-4B2D-84D9-39AF0CDB9835}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{8B42CBFA-ACBB-4917-A7B9-BD739BA5CDCE}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{40F777D0-6290-46F0-A2E4-CE99B560BA62}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{DA3405F2-5A9E-4609-9158-0FD5C644CD43}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{4836636F-6018-4CA9-B831-B9ACB67A51D7}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{F7F62612-548A-4336-8CB1-FF77BC4516FC}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{0102032D-7051-4705-8CAE-71FB36EA4BF1}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{487F81F0-6721-4B16-BBEE-2F2511AFBFB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-resources/data/TEST_REGISTRATION.xlsx
+++ b/test-resources/data/TEST_REGISTRATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code\GodEShop\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\GodEshop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7105F201-D91D-45CF-8D9E-79786ACB4DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CFC104-8818-429D-9961-119CFEB21002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
+    <workbookView xWindow="5370" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8191E-2C4B-4EEF-90E6-A2072F458120}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>902986649</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,12 +555,12 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{D81B3273-D615-41DC-97B0-8391FBDA0E33}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{8B42CBFA-ACBB-4917-A7B9-BD739BA5CDCE}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{40F777D0-6290-46F0-A2E4-CE99B560BA62}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{DA3405F2-5A9E-4609-9158-0FD5C644CD43}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{4836636F-6018-4CA9-B831-B9ACB67A51D7}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{DA3405F2-5A9E-4609-9158-0FD5C644CD43}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{487F81F0-6721-4B16-BBEE-2F2511AFBFB5}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{0102032D-7051-4705-8CAE-71FB36EA4BF1}"/>
     <hyperlink ref="E6" r:id="rId9" xr:uid="{F7F62612-548A-4336-8CB1-FF77BC4516FC}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{0102032D-7051-4705-8CAE-71FB36EA4BF1}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{487F81F0-6721-4B16-BBEE-2F2511AFBFB5}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{4836636F-6018-4CA9-B831-B9ACB67A51D7}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{060E4BE5-CBCD-4636-BF39-D839C585CDD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-resources/data/TEST_REGISTRATION.xlsx
+++ b/test-resources/data/TEST_REGISTRATION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code\GodEShop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7105F201-D91D-45CF-8D9E-79786ACB4DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF15FD-10E0-4069-AD07-1B6E46E8D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>902986649</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,12 +555,12 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{D81B3273-D615-41DC-97B0-8391FBDA0E33}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{8B42CBFA-ACBB-4917-A7B9-BD739BA5CDCE}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{40F777D0-6290-46F0-A2E4-CE99B560BA62}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{DA3405F2-5A9E-4609-9158-0FD5C644CD43}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{4836636F-6018-4CA9-B831-B9ACB67A51D7}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{F7F62612-548A-4336-8CB1-FF77BC4516FC}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{0102032D-7051-4705-8CAE-71FB36EA4BF1}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{487F81F0-6721-4B16-BBEE-2F2511AFBFB5}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{DA3405F2-5A9E-4609-9158-0FD5C644CD43}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{4836636F-6018-4CA9-B831-B9ACB67A51D7}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{F7F62612-548A-4336-8CB1-FF77BC4516FC}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{0102032D-7051-4705-8CAE-71FB36EA4BF1}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{487F81F0-6721-4B16-BBEE-2F2511AFBFB5}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{8AC0AC97-4A9E-4B57-B925-2532A9A8E3AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test-resources/data/TEST_REGISTRATION.xlsx
+++ b/test-resources/data/TEST_REGISTRATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code\GodEShop\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA2\GodEshop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF15FD-10E0-4069-AD07-1B6E46E8D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2398C7-D965-4AB5-817E-41EB02D13454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE1A57AD-09EF-4BF3-BAD7-822ECEF118E5}"/>
+    <workbookView xWindow="6750" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{A4480F10-8585-4D44-A145-70B6A0A03243}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -43,28 +44,40 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Telephone</t>
+  </si>
+  <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>Telephone</t>
-  </si>
-  <si>
     <t>newtest</t>
   </si>
   <si>
     <t>Custnew@123</t>
   </si>
   <si>
+    <t>http://localhost:8080/register</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/account/login/form</t>
+  </si>
+  <si>
     <t>newtest1</t>
   </si>
   <si>
     <t>q@123</t>
   </si>
   <si>
-    <t>http://localhost:8080/account/login/form</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/register</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>halala1102@gmail.com</t>
+  </si>
+  <si>
+    <t>newtest2</t>
+  </si>
+  <si>
+    <t>Custnew@124</t>
   </si>
 </sst>
 </file>
@@ -106,9 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,145 +440,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8191E-2C4B-4EEF-90E6-A2072F458120}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BABF2AB-D4DD-4B2F-B4E3-371940AAF35D}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>902986649</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>902986649</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>902986649</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>902986649</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
         <v>902986649</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>902986649</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>902986649</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>902986649</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>902986649</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D351C27F-5FBF-4832-8AE4-BEF741F59D1E}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{EF25B9DB-3679-47C6-AB77-192BA637A3F4}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D81B3273-D615-41DC-97B0-8391FBDA0E33}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{2D5F66C6-2445-4113-877D-ED709A7653ED}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{8B42CBFA-ACBB-4917-A7B9-BD739BA5CDCE}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{DA3405F2-5A9E-4609-9158-0FD5C644CD43}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{4836636F-6018-4CA9-B831-B9ACB67A51D7}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{F7F62612-548A-4336-8CB1-FF77BC4516FC}"/>
-    <hyperlink ref="E7" r:id="rId9" xr:uid="{0102032D-7051-4705-8CAE-71FB36EA4BF1}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{487F81F0-6721-4B16-BBEE-2F2511AFBFB5}"/>
-    <hyperlink ref="E3" r:id="rId11" xr:uid="{8AC0AC97-4A9E-4B57-B925-2532A9A8E3AB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3702FE47-4FD2-41FD-9092-943B405E2519}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F5A2AA69-5888-4931-946B-4754692FDE23}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{EF1A891A-3FAC-4410-8604-30F82224A559}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{143C4A71-5D5B-4180-831A-4727A56ADD7C}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{E1118033-401D-4932-985D-ACF6303A395E}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{7B83DF9A-65F0-4B79-9AB3-EE3F9510086E}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{0283A136-FDD4-4088-85A3-E4F5EA2E37F6}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{ADF3CD36-DFA1-4047-98B6-09CD9E8EFA7D}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{36D267FD-3512-4499-B658-DC7179E9D86B}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{D5781BFB-DF50-4992-A792-3AD3433A808C}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{CF8080B7-7D39-4F00-B2FF-263992E53541}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{4333A985-3B0A-4CF8-9587-A46FEFB525C1}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{795B5790-45E3-4B8C-BD49-8B975AA7ACFC}"/>
+    <hyperlink ref="C6" r:id="rId14" display="Custnew@123" xr:uid="{5EFD2D7B-CFF2-4039-9BF7-7B4E2C4B7E44}"/>
+    <hyperlink ref="F6" r:id="rId15" xr:uid="{5ABC6B3B-EDC5-4768-9A6D-477CADC981DF}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{CEA1504B-A176-4D73-95CF-6F6D6EA4DD62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
